--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1979.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1979.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.005*"bank" + 0.005*"may" + 0.005*"import" + 0.004*"exchange" + 0.004*"th" + 0.003*"account" + 0.003*"foreign" + 0.003*"ing" + 0.003*"cent" + 0.003*"export"</t>
-  </si>
-  <si>
-    <t>0.015*"import" + 0.014*"exchange" + 0.013*"bank" + 0.012*"may" + 0.012*"foreign" + 0.011*"export" + 0.009*"currency" + 0.009*"per" + 0.008*"account" + 0.008*"ing"</t>
-  </si>
-  <si>
-    <t>0.013*"bank" + 0.012*"exchange" + 0.012*"foreign" + 0.012*"import" + 0.011*"may" + 0.010*"per" + 0.009*"ing" + 0.009*"account" + 0.009*"export" + 0.009*"cent"</t>
-  </si>
-  <si>
-    <t>0.004*"may" + 0.003*"bank" + 0.003*"import" + 0.003*"foreign" + 0.002*"export" + 0.002*"exchange" + 0.002*"account" + 0.002*"ing" + 0.002*"currency" + 0.002*"rom"</t>
-  </si>
-  <si>
-    <t>0.001*"import" + 0.001*"export" + 0.001*"exchange" + 0.001*"bank" + 0.001*"may" + 0.001*"account" + 0.001*"per" + 0.001*"foreign" + 0.001*"ion" + 0.001*"rom"</t>
+    <t>0.047*"per" + 0.037*"cent" + 0.022*"t" + 0.020*"ion" + 0.017*"gold" + 0.014*"th" + 0.014*"te" + 0.014*"fo" + 0.013*"ly" + 0.012*"ing"</t>
+  </si>
+  <si>
+    <t>0.050*"rate" + 0.029*"exchange" + 0.024*"currency" + 0.017*"ing" + 0.014*"market" + 0.011*"agreement" + 0.011*"bank" + 0.010*"th" + 0.010*"system" + 0.010*"official"</t>
+  </si>
+  <si>
+    <t>0.062*"import" + 0.031*"export" + 0.022*"license" + 0.018*"require" + 0.018*"bank" + 0.015*"good" + 0.014*"payment" + 0.013*"approval" + 0.013*"subject" + 0.013*"control"</t>
+  </si>
+  <si>
+    <t>0.044*"may" + 0.040*"account" + 0.031*"foreign" + 0.028*"currency" + 0.021*"exchange" + 0.019*"proceeds" + 0.018*"nonresident" + 0.017*"resident" + 0.015*"export" + 0.015*"bank"</t>
+  </si>
+  <si>
+    <t>0.031*"foreign" + 0.021*"bank" + 0.016*"abroad" + 0.016*"investment" + 0.013*"year" + 0.011*"country" + 0.009*"travel" + 0.009*"person" + 0.009*"company" + 0.009*"exchange"</t>
   </si>
 </sst>
 </file>
